--- a/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/平均运距.xlsx
+++ b/data_year/zb/运输和邮电/按货类分国家铁路货物运输量/平均运距.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,1045 +513,569 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590</v>
+        <v>1671</v>
       </c>
       <c r="C2" t="n">
-        <v>1179</v>
+        <v>1459</v>
       </c>
       <c r="D2" t="n">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="E2" t="n">
-        <v>1712</v>
+        <v>1361</v>
       </c>
       <c r="F2" t="n">
-        <v>2772</v>
+        <v>3779</v>
       </c>
       <c r="G2" t="n">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="H2" t="n">
-        <v>851</v>
+        <v>990</v>
       </c>
       <c r="I2" t="n">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="J2" t="n">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="K2" t="n">
-        <v>869</v>
+        <v>942</v>
       </c>
       <c r="L2" t="n">
-        <v>510</v>
+        <v>362</v>
       </c>
       <c r="M2" t="n">
-        <v>1276</v>
+        <v>1802</v>
       </c>
       <c r="N2" t="n">
-        <v>473</v>
+        <v>652</v>
       </c>
       <c r="O2" t="n">
-        <v>1079</v>
+        <v>1093</v>
       </c>
       <c r="P2" t="n">
-        <v>581</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1544</v>
+        <v>1681.80844647424</v>
       </c>
       <c r="C3" t="n">
-        <v>1206</v>
+        <v>1580</v>
       </c>
       <c r="D3" t="n">
-        <v>798</v>
+        <v>832</v>
       </c>
       <c r="E3" t="n">
-        <v>1736</v>
+        <v>1104</v>
       </c>
       <c r="F3" t="n">
-        <v>3017</v>
+        <v>3810</v>
       </c>
       <c r="G3" t="n">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="H3" t="n">
-        <v>842</v>
+        <v>1031</v>
       </c>
       <c r="I3" t="n">
-        <v>558</v>
+        <v>653</v>
       </c>
       <c r="J3" t="n">
-        <v>759</v>
+        <v>700</v>
       </c>
       <c r="K3" t="n">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="L3" t="n">
-        <v>515</v>
+        <v>373</v>
       </c>
       <c r="M3" t="n">
-        <v>1321</v>
+        <v>1795</v>
       </c>
       <c r="N3" t="n">
-        <v>517</v>
+        <v>669</v>
       </c>
       <c r="O3" t="n">
-        <v>1045</v>
+        <v>1090</v>
       </c>
       <c r="P3" t="n">
-        <v>591</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1527.53462895665</v>
+        <v>1738.72246435527</v>
       </c>
       <c r="C4" t="n">
-        <v>1234.39919219118</v>
+        <v>1630</v>
       </c>
       <c r="D4" t="n">
-        <v>806.776568536176</v>
+        <v>835</v>
       </c>
       <c r="E4" t="n">
-        <v>1759.06637027628</v>
+        <v>1131</v>
       </c>
       <c r="F4" t="n">
-        <v>3440.74074074074</v>
+        <v>3701</v>
       </c>
       <c r="G4" t="n">
-        <v>414.571746384872</v>
+        <v>427</v>
       </c>
       <c r="H4" t="n">
-        <v>868.608587208267</v>
+        <v>1070</v>
       </c>
       <c r="I4" t="n">
-        <v>566.737526266921</v>
+        <v>645</v>
       </c>
       <c r="J4" t="n">
-        <v>758.359872611465</v>
+        <v>637</v>
       </c>
       <c r="K4" t="n">
-        <v>944.907272550733</v>
+        <v>855</v>
       </c>
       <c r="L4" t="n">
-        <v>497.825328526573</v>
+        <v>354</v>
       </c>
       <c r="M4" t="n">
-        <v>1382.51630041053</v>
+        <v>1817</v>
       </c>
       <c r="N4" t="n">
-        <v>548.953925016392</v>
+        <v>653</v>
       </c>
       <c r="O4" t="n">
-        <v>1041.18105218438</v>
+        <v>1124</v>
       </c>
       <c r="P4" t="n">
-        <v>609.58904109589</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1531.54385790338</v>
+        <v>1805.42881363211</v>
       </c>
       <c r="C5" t="n">
-        <v>1278</v>
+        <v>1696.14867133316</v>
       </c>
       <c r="D5" t="n">
-        <v>820</v>
+        <v>830.275754672247</v>
       </c>
       <c r="E5" t="n">
-        <v>1764</v>
+        <v>1122.41212921945</v>
       </c>
       <c r="F5" t="n">
-        <v>3366</v>
+        <v>3843.51839169498</v>
       </c>
       <c r="G5" t="n">
-        <v>420</v>
+        <v>374.808869663773</v>
       </c>
       <c r="H5" t="n">
-        <v>895</v>
+        <v>1033.55308814539</v>
       </c>
       <c r="I5" t="n">
-        <v>574</v>
+        <v>646.737845090842</v>
       </c>
       <c r="J5" t="n">
-        <v>794</v>
+        <v>641.998138022188</v>
       </c>
       <c r="K5" t="n">
-        <v>956</v>
+        <v>850.527105029976</v>
       </c>
       <c r="L5" t="n">
-        <v>476</v>
+        <v>312.286152545088</v>
       </c>
       <c r="M5" t="n">
-        <v>1348</v>
+        <v>1791.7837601436</v>
       </c>
       <c r="N5" t="n">
-        <v>574</v>
+        <v>634.733743222475</v>
       </c>
       <c r="O5" t="n">
-        <v>1083</v>
+        <v>1107.76432596344</v>
       </c>
       <c r="P5" t="n">
-        <v>639</v>
+        <v>687.986746222118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1536.89567430025</v>
+        <v>1772.37003113361</v>
       </c>
       <c r="C6" t="n">
-        <v>1302.81602002503</v>
+        <v>1734.74979112019</v>
       </c>
       <c r="D6" t="n">
-        <v>834.709463912869</v>
+        <v>814.156832233725</v>
       </c>
       <c r="E6" t="n">
-        <v>1772.84522706209</v>
+        <v>1065.86259934932</v>
       </c>
       <c r="F6" t="n">
-        <v>3410</v>
+        <v>3878.26211981552</v>
       </c>
       <c r="G6" t="n">
-        <v>413.054054054054</v>
+        <v>387.281053116837</v>
       </c>
       <c r="H6" t="n">
-        <v>920.169703714007</v>
+        <v>1027.52273908224</v>
       </c>
       <c r="I6" t="n">
-        <v>575.847192823304</v>
+        <v>645.5994151402861</v>
       </c>
       <c r="J6" t="n">
-        <v>770.18779342723</v>
+        <v>629.143916361505</v>
       </c>
       <c r="K6" t="n">
-        <v>920.6630944407229</v>
+        <v>870.022578326868</v>
       </c>
       <c r="L6" t="n">
-        <v>526.345536287733</v>
+        <v>284.862698460648</v>
       </c>
       <c r="M6" t="n">
-        <v>1499.11058133138</v>
+        <v>1764.67203825186</v>
       </c>
       <c r="N6" t="n">
-        <v>619.090015011129</v>
+        <v>576.218072926767</v>
       </c>
       <c r="O6" t="n">
-        <v>1112.75259590872</v>
+        <v>1087.73928270144</v>
       </c>
       <c r="P6" t="n">
-        <v>666.376414976987</v>
+        <v>621.973307103316</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1565</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1400</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="E7" t="n">
-        <v>1531</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3486</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="H7" t="n">
-        <v>932</v>
+        <v>1007</v>
       </c>
       <c r="I7" t="n">
-        <v>595</v>
-      </c>
-      <c r="J7" t="n">
-        <v>807</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>935</v>
+        <v>842</v>
       </c>
       <c r="L7" t="n">
-        <v>464</v>
+        <v>342</v>
       </c>
       <c r="M7" t="n">
-        <v>1493</v>
+        <v>1811</v>
       </c>
       <c r="N7" t="n">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="O7" t="n">
-        <v>1134</v>
+        <v>1038</v>
       </c>
       <c r="P7" t="n">
-        <v>661</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1573</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1376</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="E8" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3670</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H8" t="n">
-        <v>931</v>
+        <v>1025</v>
       </c>
       <c r="I8" t="n">
-        <v>601</v>
-      </c>
-      <c r="J8" t="n">
-        <v>772</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>926</v>
+        <v>810</v>
       </c>
       <c r="L8" t="n">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="M8" t="n">
-        <v>1536</v>
+        <v>1790</v>
       </c>
       <c r="N8" t="n">
-        <v>605</v>
+        <v>528</v>
       </c>
       <c r="O8" t="n">
-        <v>1077</v>
+        <v>987</v>
       </c>
       <c r="P8" t="n">
-        <v>648</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1584.23454583168</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1365</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="E9" t="n">
-        <v>1385</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3738</v>
-      </c>
+        <v>780</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="H9" t="n">
-        <v>928</v>
+        <v>1060</v>
       </c>
       <c r="I9" t="n">
-        <v>607</v>
-      </c>
-      <c r="J9" t="n">
-        <v>751</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>912</v>
+        <v>779</v>
       </c>
       <c r="L9" t="n">
-        <v>502</v>
+        <v>334</v>
       </c>
       <c r="M9" t="n">
-        <v>1597</v>
+        <v>1974</v>
       </c>
       <c r="N9" t="n">
-        <v>626</v>
+        <v>560</v>
       </c>
       <c r="O9" t="n">
-        <v>1078</v>
+        <v>934</v>
       </c>
       <c r="P9" t="n">
-        <v>663</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1674.30146862716</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1470</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>853</v>
+        <v>808</v>
       </c>
       <c r="E10" t="n">
-        <v>1409</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3859</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>446</v>
+        <v>339</v>
       </c>
       <c r="H10" t="n">
-        <v>980</v>
+        <v>1064</v>
       </c>
       <c r="I10" t="n">
-        <v>622</v>
-      </c>
-      <c r="J10" t="n">
-        <v>794</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>917</v>
+        <v>749</v>
       </c>
       <c r="L10" t="n">
-        <v>458</v>
+        <v>339</v>
       </c>
       <c r="M10" t="n">
-        <v>1739</v>
+        <v>1903</v>
       </c>
       <c r="N10" t="n">
-        <v>648</v>
+        <v>537</v>
       </c>
       <c r="O10" t="n">
-        <v>1146</v>
+        <v>896</v>
       </c>
       <c r="P10" t="n">
-        <v>728</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1667.65359845489</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1460</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>845</v>
+        <v>785</v>
       </c>
       <c r="E11" t="n">
-        <v>1425</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3869</v>
-      </c>
+        <v>770</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>515</v>
+        <v>371</v>
       </c>
       <c r="H11" t="n">
-        <v>982</v>
+        <v>1059</v>
       </c>
       <c r="I11" t="n">
-        <v>639</v>
-      </c>
-      <c r="J11" t="n">
-        <v>732</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>952</v>
+        <v>739</v>
       </c>
       <c r="L11" t="n">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="M11" t="n">
-        <v>1749</v>
+        <v>1981</v>
       </c>
       <c r="N11" t="n">
-        <v>652</v>
+        <v>511</v>
       </c>
       <c r="O11" t="n">
-        <v>1103</v>
+        <v>876</v>
       </c>
       <c r="P11" t="n">
-        <v>680</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1671</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1459</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>831</v>
+        <v>765</v>
       </c>
       <c r="E12" t="n">
-        <v>1361</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3779</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>521</v>
+        <v>359</v>
       </c>
       <c r="H12" t="n">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="I12" t="n">
-        <v>642</v>
-      </c>
-      <c r="J12" t="n">
-        <v>732</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>942</v>
+        <v>749</v>
       </c>
       <c r="L12" t="n">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="M12" t="n">
-        <v>1802</v>
+        <v>1837</v>
       </c>
       <c r="N12" t="n">
-        <v>652</v>
+        <v>501</v>
       </c>
       <c r="O12" t="n">
-        <v>1093</v>
+        <v>806</v>
       </c>
       <c r="P12" t="n">
-        <v>705</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1681.80844647424</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1580</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>832</v>
+        <v>804</v>
       </c>
       <c r="E13" t="n">
-        <v>1104</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3810</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>460</v>
+        <v>304</v>
       </c>
       <c r="H13" t="n">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="I13" t="n">
-        <v>653</v>
-      </c>
-      <c r="J13" t="n">
-        <v>700</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>898</v>
+        <v>733</v>
       </c>
       <c r="L13" t="n">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="M13" t="n">
-        <v>1795</v>
+        <v>2079</v>
       </c>
       <c r="N13" t="n">
-        <v>669</v>
+        <v>513</v>
       </c>
       <c r="O13" t="n">
-        <v>1090</v>
+        <v>837</v>
       </c>
       <c r="P13" t="n">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1738.72246435527</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1630</v>
-      </c>
-      <c r="D14" t="n">
-        <v>835</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1131</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3701</v>
-      </c>
-      <c r="G14" t="n">
-        <v>427</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1070</v>
-      </c>
-      <c r="I14" t="n">
-        <v>645</v>
-      </c>
-      <c r="J14" t="n">
-        <v>637</v>
-      </c>
-      <c r="K14" t="n">
-        <v>855</v>
-      </c>
-      <c r="L14" t="n">
-        <v>354</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1817</v>
-      </c>
-      <c r="N14" t="n">
-        <v>653</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1124</v>
-      </c>
-      <c r="P14" t="n">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1805.42881363211</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1696.14867133316</v>
-      </c>
-      <c r="D15" t="n">
-        <v>830.275754672247</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1122.41212921945</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3843.51839169498</v>
-      </c>
-      <c r="G15" t="n">
-        <v>374.808869663773</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1033.55308814539</v>
-      </c>
-      <c r="I15" t="n">
-        <v>646.737845090842</v>
-      </c>
-      <c r="J15" t="n">
-        <v>641.998138022188</v>
-      </c>
-      <c r="K15" t="n">
-        <v>850.527105029976</v>
-      </c>
-      <c r="L15" t="n">
-        <v>312.286152545088</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1791.7837601436</v>
-      </c>
-      <c r="N15" t="n">
-        <v>634.733743222475</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1107.76432596344</v>
-      </c>
-      <c r="P15" t="n">
-        <v>687.986746222118</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1772.37003113361</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1734.74979112019</v>
-      </c>
-      <c r="D16" t="n">
-        <v>814.156832233725</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1065.86259934932</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3878.26211981552</v>
-      </c>
-      <c r="G16" t="n">
-        <v>387.281053116837</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1027.52273908224</v>
-      </c>
-      <c r="I16" t="n">
-        <v>645.5994151402861</v>
-      </c>
-      <c r="J16" t="n">
-        <v>629.143916361505</v>
-      </c>
-      <c r="K16" t="n">
-        <v>870.022578326868</v>
-      </c>
-      <c r="L16" t="n">
-        <v>284.862698460648</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1764.67203825186</v>
-      </c>
-      <c r="N16" t="n">
-        <v>576.218072926767</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1087.73928270144</v>
-      </c>
-      <c r="P16" t="n">
-        <v>621.973307103316</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="n">
-        <v>792</v>
-      </c>
-      <c r="E17" t="n">
-        <v>845</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>367</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1007</v>
-      </c>
-      <c r="I17" t="n">
-        <v>619</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>842</v>
-      </c>
-      <c r="L17" t="n">
-        <v>342</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1811</v>
-      </c>
-      <c r="N17" t="n">
-        <v>533</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1038</v>
-      </c>
-      <c r="P17" t="n">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>802</v>
-      </c>
-      <c r="E18" t="n">
-        <v>780</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
-        <v>374</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1025</v>
-      </c>
-      <c r="I18" t="n">
-        <v>626</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>810</v>
-      </c>
-      <c r="L18" t="n">
-        <v>399</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1790</v>
-      </c>
-      <c r="N18" t="n">
-        <v>528</v>
-      </c>
-      <c r="O18" t="n">
-        <v>987</v>
-      </c>
-      <c r="P18" t="n">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>825</v>
-      </c>
-      <c r="E19" t="n">
-        <v>780</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>348</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1060</v>
-      </c>
-      <c r="I19" t="n">
-        <v>651</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>779</v>
-      </c>
-      <c r="L19" t="n">
-        <v>334</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1974</v>
-      </c>
-      <c r="N19" t="n">
-        <v>560</v>
-      </c>
-      <c r="O19" t="n">
-        <v>934</v>
-      </c>
-      <c r="P19" t="n">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>808</v>
-      </c>
-      <c r="E20" t="n">
-        <v>752</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>339</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1064</v>
-      </c>
-      <c r="I20" t="n">
-        <v>659</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>749</v>
-      </c>
-      <c r="L20" t="n">
-        <v>339</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1903</v>
-      </c>
-      <c r="N20" t="n">
-        <v>537</v>
-      </c>
-      <c r="O20" t="n">
-        <v>896</v>
-      </c>
-      <c r="P20" t="n">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>785</v>
-      </c>
-      <c r="E21" t="n">
-        <v>770</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>371</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1059</v>
-      </c>
-      <c r="I21" t="n">
-        <v>658</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>739</v>
-      </c>
-      <c r="L21" t="n">
-        <v>324</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1981</v>
-      </c>
-      <c r="N21" t="n">
-        <v>511</v>
-      </c>
-      <c r="O21" t="n">
-        <v>876</v>
-      </c>
-      <c r="P21" t="n">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="n">
-        <v>765</v>
-      </c>
-      <c r="E22" t="n">
-        <v>648</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>359</v>
-      </c>
-      <c r="H22" t="n">
-        <v>992</v>
-      </c>
-      <c r="I22" t="n">
-        <v>656</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>749</v>
-      </c>
-      <c r="L22" t="n">
-        <v>327</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1837</v>
-      </c>
-      <c r="N22" t="n">
-        <v>501</v>
-      </c>
-      <c r="O22" t="n">
-        <v>806</v>
-      </c>
-      <c r="P22" t="n">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
